--- a/data/long_bre/P24_4-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_4-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,19%</t>
+          <t>102,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62,17%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,48</t>
+          <t>2,37; 10,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,27</t>
+          <t>-1,98; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,36</t>
+          <t>1,58; 9,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 224,57</t>
+          <t>0,22; 9,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 79,64</t>
+          <t>0,18; 12,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,03; 145,59</t>
+          <t>24,68; 234,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; 83,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 139,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 160,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 128,15</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-9,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>-11,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,06%</t>
+          <t>-12,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-13,9</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>-11,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,02%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -3,59</t>
+          <t>-15,4; -4,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -4,04</t>
+          <t>-13,93; -1,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -4,94</t>
+          <t>-17,28; -6,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -4,57</t>
+          <t>-19,61; -4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -5,15</t>
+          <t>-22,2; -6,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -6,56</t>
+          <t>-18,14; -5,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; -2,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; -7,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; -6,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,89; -9,53</t>
         </is>
       </c>
     </row>
@@ -751,7 +863,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -761,27 +873,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,49%</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54,72%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>43,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46,7%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 7,99</t>
+          <t>-1,39; 8,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 11,36</t>
+          <t>0,46; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 9,73</t>
+          <t>1,17; 10,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 90,25</t>
+          <t>0,79; 14,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,46; 153,83</t>
+          <t>0,41; 14,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 125,07</t>
+          <t>-11,79; 86,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 133,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 138,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 103,24</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 100,78</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>162,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,7; 365,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 180,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 88,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,32</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,99%</t>
+          <t>138,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -8,36</t>
+          <t>3,17; 10,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 4,43</t>
+          <t>0,67; 12,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -2,6</t>
+          <t>-1,14; 8,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -10,01</t>
+          <t>-4,27; 8,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 6,32</t>
+          <t>-5,37; 12,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -3,49</t>
+          <t>42,44; 333,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 198,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 98,02</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-27,91; 86,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-40,17; 156,39</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>-14,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>-24,57</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>-16,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-9,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,86%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-32,67%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,68</t>
+          <t>-20,81; -8,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 6,42</t>
+          <t>-14,76; 1,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,95</t>
+          <t>-14,73; -2,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,54; 174,01</t>
+          <t>-12,8; 4,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,65; 61,61</t>
+          <t>-38,46; -10,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 113,3</t>
+          <t>-23,86; -10,11</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,11; 2,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; -3,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 7,17</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-48,23; -15,8</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>215,59%</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>119,16%</t>
+          <t>21,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>84,03%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46,56%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>164,46%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 18,56</t>
+          <t>2,9; 13,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 12,44</t>
+          <t>-6,89; 6,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 14,21</t>
+          <t>0,38; 10,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 1427,23</t>
+          <t>-7,12; 8,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 764,56</t>
+          <t>9,55; 33,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 199,53</t>
+          <t>26,23; 193,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; 66,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 117,57</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 55,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>42,39; 388,79</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -9,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 2,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,85; -10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,59; -7,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>180,02%</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>205,53%</t>
+          <t>164,17%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>105,48%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33,01%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>146,95%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,05</t>
+          <t>0,1; 16,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 16,69</t>
+          <t>-2,76; 12,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,62; 20,52</t>
+          <t>-4,19; 14,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,5; 729,95</t>
+          <t>-0,5; 16,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 316,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,2; 625,55</t>
+          <t>-13,6; 1038,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-50,73; 843,02</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-27,61; 187,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 906,18</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>132,12%</t>
+          <t>-16,32</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>-18,83%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,86%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-20,03%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,57</t>
+          <t>-26,85; -4,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,45</t>
+          <t>-23,46; 0,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,98</t>
+          <t>-28,05; -4,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>60,31; 244,41</t>
+          <t>-31,99; 0,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,03; 100,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,22; 83,75</t>
+          <t>-29,56; -5,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,04; 0,39</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,84; -6,67</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,48; 0,95</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>123,68%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>76,11%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>195,53%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,88; -8,25</t>
+          <t>-0,15; 17,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -3,19</t>
+          <t>-3,02; 16,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -6,8</t>
+          <t>4,28; 21,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -9,92</t>
+          <t>-7,53; 21,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -8,67</t>
+          <t>-6,53; 582,18</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 361,29</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 663,17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-36,91; 353,37</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,82; 103,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 74,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,86; 108,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>122,96%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>50,26%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>44,75%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>44,63%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>40,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 9,39</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 7,48</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 7,54</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 7,29</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 10,18</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>63,63; 224,49</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 102,41</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 85,44</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 93,3</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 96,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-12,36</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-8,3</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-11,11</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-9,83</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-16,32</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-14,6%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-13,52%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; -8,49</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -3,56</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; -7,14</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; -4,16</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; -9,03</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; -10,21</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-15,68; -4,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-18,4; -9,07</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-20,13; -6,11</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-30,74; -13,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>11,08</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>57,81%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>65,51%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>31,42%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>67,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 9,12</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 7,3</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 9,6</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 9,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 16,59</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>23,67; 109,62</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 74,99</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 111,92</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 65,71</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 122,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_4-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_4-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
